--- a/public/template/jembatan.xlsx
+++ b/public/template/jembatan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB318857-964E-4A50-A585-61CE9E38F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32E6F5A-864F-4C2D-B5DA-D8081AE439DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>NOMOR RUAS</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Koordinat</t>
-  </si>
-  <si>
-    <t>Nilai Kondisi</t>
   </si>
   <si>
     <t>Kondisi</t>
@@ -106,11 +103,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,15 +133,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3F4D3750-56DB-4D44-B713-A4471BE15241}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -442,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,12 +539,8 @@
         <v>16</v>
       </c>
       <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -553,34 +554,34 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>21</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
